--- a/Documents/Профиль_нагрузки.xlsx
+++ b/Documents/Профиль_нагрузки.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUAWEI\Documents\loadrunner_webtours\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0617AE9E-062F-4FC5-8957-12EAB8CAE176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C79CA76-41E0-4DD7-B7C0-51F1509AA158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="788" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="788" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Автоматизированный расчет" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -837,7 +837,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="95">
   <si>
     <t>Вход в систему</t>
   </si>
@@ -2136,7 +2136,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2326,6 +2326,9 @@
     <xf numFmtId="0" fontId="0" fillId="47" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="80">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2409,28 +2412,7 @@
     <cellStyle name="Текст предупреждения" xfId="15" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
@@ -2804,7 +2786,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I1:J14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -2884,25 +2866,25 @@
     <dataField name="Сумма по полю Итого" fld="7" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="7">
-    <format dxfId="13">
+    <format dxfId="6">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="5">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="3">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="2">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -3183,8 +3165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W49"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="66" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView topLeftCell="C26" zoomScale="66" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5049,10 +5031,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E90D7789-0A11-4EB6-8536-854DD3744EA5}">
-  <dimension ref="C9:U63"/>
+  <dimension ref="C9:U64"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="69" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13:O17"/>
+    <sheetView topLeftCell="A27" zoomScale="69" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K61" sqref="K61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5587,6 +5569,24 @@
         <v>-1.0101010101010166E-2</v>
       </c>
     </row>
+    <row r="25" spans="5:21" x14ac:dyDescent="0.3">
+      <c r="E25" s="98" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="30"/>
+      <c r="G25" s="100">
+        <f>SUM(G13:G24)</f>
+        <v>989.48717948717956</v>
+      </c>
+      <c r="H25" s="100">
+        <f>SUM(H13:H24)</f>
+        <v>983</v>
+      </c>
+      <c r="I25" s="111">
+        <f>1-G25/H25</f>
+        <v>-6.5993687560321757E-3</v>
+      </c>
+    </row>
     <row r="29" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E29" s="109" t="s">
         <v>84</v>
@@ -6100,12 +6100,23 @@
         <v>1.1869436201780381E-2</v>
       </c>
     </row>
-    <row r="45" spans="5:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E45" s="75"/>
-      <c r="F45" s="76"/>
-      <c r="G45" s="77"/>
-      <c r="H45" s="78"/>
-      <c r="I45" s="79"/>
+    <row r="45" spans="5:21" x14ac:dyDescent="0.3">
+      <c r="E45" s="98" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="30"/>
+      <c r="G45" s="100">
+        <f>SUM(G33:G44)</f>
+        <v>9908</v>
+      </c>
+      <c r="H45" s="100">
+        <f>SUM(H33:H44)</f>
+        <v>9758</v>
+      </c>
+      <c r="I45" s="111">
+        <f>1-G45/H45</f>
+        <v>-1.5372002459520306E-2</v>
+      </c>
     </row>
     <row r="46" spans="5:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E46" s="75"/>
@@ -6388,6 +6399,24 @@
       <c r="I63" s="92">
         <f t="shared" ref="I63" si="12">1-G63/H63</f>
         <v>1.9980019980020414E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E64" s="98" t="s">
+        <v>4</v>
+      </c>
+      <c r="F64" s="30"/>
+      <c r="G64" s="100">
+        <f>SUM(G52:G63)</f>
+        <v>29724</v>
+      </c>
+      <c r="H64" s="100">
+        <f>SUM(H52:H63)</f>
+        <v>29311</v>
+      </c>
+      <c r="I64" s="111">
+        <f>1-G64/H64</f>
+        <v>-1.4090273276244458E-2</v>
       </c>
     </row>
   </sheetData>
@@ -6404,10 +6433,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{616A236A-DCF3-4492-AE3A-3EAA2EB5D1B0}">
-  <dimension ref="C7:U103"/>
+  <dimension ref="C7:U104"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScale="68" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K106" sqref="K106"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="68" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6941,12 +6970,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="5:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E23" s="75"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="78"/>
-      <c r="I23" s="79"/>
+    <row r="23" spans="5:21" x14ac:dyDescent="0.3">
+      <c r="E23" s="98" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="30"/>
+      <c r="G23" s="100">
+        <f>SUM(G11:G22)</f>
+        <v>1984</v>
+      </c>
+      <c r="H23" s="100">
+        <f>SUM(H11:H22)</f>
+        <v>1974</v>
+      </c>
+      <c r="I23" s="111">
+        <f>1-G23/H23</f>
+        <v>-5.0658561296859084E-3</v>
+      </c>
     </row>
     <row r="24" spans="5:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E24" s="75"/>
@@ -7238,6 +7278,24 @@
         <v>1.4705882352941124E-2</v>
       </c>
     </row>
+    <row r="43" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E43" s="98" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="30"/>
+      <c r="G43" s="100">
+        <f>SUM(G31:G42)</f>
+        <v>3968</v>
+      </c>
+      <c r="H43" s="100">
+        <f>SUM(H31:H42)</f>
+        <v>3953</v>
+      </c>
+      <c r="I43" s="111">
+        <f>1-G43/H43</f>
+        <v>-3.7945863900834542E-3</v>
+      </c>
+    </row>
     <row r="47" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E47" s="109" t="s">
         <v>18</v>
@@ -7521,6 +7579,24 @@
         <v>-1.0050251256281451E-2</v>
       </c>
     </row>
+    <row r="63" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E63" s="98" t="s">
+        <v>4</v>
+      </c>
+      <c r="F63" s="30"/>
+      <c r="G63" s="100">
+        <f>SUM(G51:G62)</f>
+        <v>5952</v>
+      </c>
+      <c r="H63" s="100">
+        <f>SUM(H51:H62)</f>
+        <v>5842</v>
+      </c>
+      <c r="I63" s="111">
+        <f>1-G63/H63</f>
+        <v>-1.8829168093118742E-2</v>
+      </c>
+    </row>
     <row r="67" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E67" s="109" t="s">
         <v>94</v>
@@ -7804,6 +7880,24 @@
         <v>-7.5187969924812581E-3</v>
       </c>
     </row>
+    <row r="83" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E83" s="98" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="30"/>
+      <c r="G83" s="100">
+        <f>SUM(G71:G82)</f>
+        <v>7936</v>
+      </c>
+      <c r="H83" s="100">
+        <f>SUM(H71:H82)</f>
+        <v>7876</v>
+      </c>
+      <c r="I83" s="111">
+        <f>1-G83/H83</f>
+        <v>-7.6180802437786355E-3</v>
+      </c>
+    </row>
     <row r="88" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E88" s="109" t="s">
         <v>84</v>
@@ -8073,6 +8167,24 @@
       <c r="I103" s="92">
         <f t="shared" ref="I103" si="15">1-G103/H103</f>
         <v>1.1869436201780381E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E104" s="98" t="s">
+        <v>4</v>
+      </c>
+      <c r="F104" s="30"/>
+      <c r="G104" s="100">
+        <f>SUM(G92:G103)</f>
+        <v>9908</v>
+      </c>
+      <c r="H104" s="100">
+        <f>SUM(H92:H103)</f>
+        <v>9758</v>
+      </c>
+      <c r="I104" s="111">
+        <f>1-G104/H104</f>
+        <v>-1.5372002459520306E-2</v>
       </c>
     </row>
   </sheetData>
@@ -8093,8 +8205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="35" workbookViewId="0">
-      <selection activeCell="C55" activeCellId="1" sqref="A35:J46 C55"/>
+    <sheetView topLeftCell="A37" zoomScale="78" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
